--- a/data/shared/aux_var.xlsx
+++ b/data/shared/aux_var.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1C1417-E44E-B54D-95A0-690E464896EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC854C29-AF8C-AD43-BCFD-B2DDA7BB97BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="460" windowWidth="23560" windowHeight="15540" activeTab="1" xr2:uid="{EB147384-1CE6-BF41-9040-FF3EBEE21DEF}"/>
+    <workbookView xWindow="5240" yWindow="2460" windowWidth="23560" windowHeight="15540" xr2:uid="{EB147384-1CE6-BF41-9040-FF3EBEE21DEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime Kiln" sheetId="1" r:id="rId1"/>
     <sheet name="Air Separation" sheetId="3" r:id="rId2"/>
     <sheet name="Reference Values" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,6 +125,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>[1/(t O2/Nm3 O2)] * kg steam/Nm3 steam * MJ steam/kg steam / 1000</t>
         </r>
@@ -296,6 +297,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -304,6 +306,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 </t>
@@ -476,6 +479,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>S.E. Tanzer:</t>
         </r>
@@ -505,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Scenario</t>
   </si>
@@ -519,9 +523,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>IEAGHG 2013</t>
-  </si>
-  <si>
     <t>Electricity Demand</t>
   </si>
   <si>
@@ -664,15 +665,25 @@
   </si>
   <si>
     <t>GJ / t O2</t>
+  </si>
+  <si>
+    <t>ieaghg-reference</t>
+  </si>
+  <si>
+    <t>% CO2</t>
+  </si>
+  <si>
+    <t>CO2 not calcinated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -747,15 +758,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -859,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -908,6 +921,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4AE81E-8C5A-F941-8D64-A8B08915D5A2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,34 +1250,40 @@
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1274,10 +1295,14 @@
         <f>C5</f>
         <v>3.4694659999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="46">
+        <f>D5</f>
+        <v>7.0422535211267609E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <f>30*'Reference Values'!B18</f>
@@ -1286,6 +1311,10 @@
       <c r="C5">
         <f>200.2*'Reference Values'!F4/1000</f>
         <v>3.4694659999999993</v>
+      </c>
+      <c r="D5" s="46">
+        <f>3/42.6</f>
+        <v>7.0422535211267609E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1297,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD28EA80-45BD-AB42-A7A6-5104013E3912}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,16 +1343,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1331,16 +1360,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1370,8 +1399,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="47" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="45">
         <v>0.21</v>
@@ -1417,18 +1446,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1437,33 +1466,33 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="15">
         <v>12</v>
@@ -1473,7 +1502,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="18">
         <v>17.329999999999998</v>
@@ -1491,12 +1520,12 @@
         <v>34.468724082518165</v>
       </c>
       <c r="J4" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="B5" s="15">
         <v>16.042459999999998</v>
@@ -1506,7 +1535,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="18">
         <v>3.2</v>
@@ -1524,12 +1553,12 @@
         <v>2.3682220828775362</v>
       </c>
       <c r="J5" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="B6" s="15">
         <v>28.010100000000001</v>
@@ -1539,7 +1568,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="18">
         <v>7.47</v>
@@ -1557,12 +1586,12 @@
         <v>3.9112454453016037</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="15">
         <v>44.009500000000003</v>
@@ -1572,7 +1601,7 @@
         <v>1.963482644775587E-3</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -1584,12 +1613,12 @@
         <v>2.77</v>
       </c>
       <c r="J7" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>29</v>
       </c>
       <c r="B8" s="15">
         <v>2.0158800000000001</v>
@@ -1603,9 +1632,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="15">
         <v>18.015280000000001</v>
@@ -1615,15 +1644,15 @@
         <v>8.0375122691175155E-4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="15">
         <f>(78.12+92.15+106.7)/3</f>
@@ -1635,18 +1664,18 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="28" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="B11" s="15">
         <v>28.013400000000001</v>
@@ -1656,7 +1685,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="29">
         <v>0.57879999999999998</v>
@@ -1666,9 +1695,9 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15">
         <v>31.998799999999999</v>
@@ -1678,7 +1707,7 @@
         <v>1.4276255911483892E-3</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="29">
         <v>0.94240000000000002</v>
@@ -1688,12 +1717,12 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
       <c r="E13" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="29">
         <v>0.99909999999999999</v>
@@ -1703,11 +1732,11 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="E14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="29">
         <v>0.98729999999999996</v>
@@ -1717,14 +1746,14 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="E15" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -1732,25 +1761,25 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="39"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="B17" s="40">
         <v>3.6</v>
       </c>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="41">
         <f>B17/1000</f>
@@ -1758,9 +1787,9 @@
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="34">
         <f>1/0.022414</f>
